--- a/servidor/plantillasVacias/EmpleadoManual.xlsx
+++ b/servidor/plantillasVacias/EmpleadoManual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jennytipan\Desktop\ProyectoFulltime\FullTimeV3\servidor\plantillasVacias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9764C63A-CD3C-4564-B277-8C522E8E09CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5080627-55B1-48D1-B5CF-CB48B339F898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23310" yWindow="1485" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empleados" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="387">
   <si>
     <t>apellido</t>
   </si>
@@ -94,21 +94,6 @@
     <t>ESTADO CIVIL</t>
   </si>
   <si>
-    <t>1 Soltero/a</t>
-  </si>
-  <si>
-    <t>2 Unión de Hecho</t>
-  </si>
-  <si>
-    <t>3 Casado/a</t>
-  </si>
-  <si>
-    <t>4 Divorciado/a</t>
-  </si>
-  <si>
-    <t>5 Viudo/a</t>
-  </si>
-  <si>
     <t>estado_civil</t>
   </si>
   <si>
@@ -118,1062 +103,12 @@
     <t>GENERO</t>
   </si>
   <si>
-    <t>1 Masculino</t>
-  </si>
-  <si>
-    <t>2 Femenino</t>
-  </si>
-  <si>
     <t>ESTADO</t>
   </si>
   <si>
-    <t>1 Activo</t>
-  </si>
-  <si>
-    <t>2 Inactivo</t>
-  </si>
-  <si>
     <t>(opcional)</t>
   </si>
   <si>
-    <t>1 Afgana</t>
-  </si>
-  <si>
-    <t>2 Afgano</t>
-  </si>
-  <si>
-    <t>3 Albanés</t>
-  </si>
-  <si>
-    <t>4 Albanesa</t>
-  </si>
-  <si>
-    <t>5 Alemán</t>
-  </si>
-  <si>
-    <t>6 Alemana</t>
-  </si>
-  <si>
-    <t>7 Andorrana</t>
-  </si>
-  <si>
-    <t>8 Andorrano</t>
-  </si>
-  <si>
-    <t>9 Angoleña</t>
-  </si>
-  <si>
-    <t>10 Angoleño</t>
-  </si>
-  <si>
-    <t>11 Antiguana</t>
-  </si>
-  <si>
-    <t>12 Antiguano</t>
-  </si>
-  <si>
-    <t>13 Argelina</t>
-  </si>
-  <si>
-    <t>14 Argelino</t>
-  </si>
-  <si>
-    <t>15 Argentina</t>
-  </si>
-  <si>
-    <t>16 Argentino</t>
-  </si>
-  <si>
-    <t>17 Armenia</t>
-  </si>
-  <si>
-    <t>18 Armenio</t>
-  </si>
-  <si>
-    <t>19 Australiana</t>
-  </si>
-  <si>
-    <t>20 Australiano</t>
-  </si>
-  <si>
-    <t>21 Austriaca</t>
-  </si>
-  <si>
-    <t>22 Austriaco</t>
-  </si>
-  <si>
-    <t>23 Azerbaiyana</t>
-  </si>
-  <si>
-    <t>24 Azerbaiyano</t>
-  </si>
-  <si>
-    <t>25 Bahameña</t>
-  </si>
-  <si>
-    <t>26 Bahameño</t>
-  </si>
-  <si>
-    <t>27 Bangladesí</t>
-  </si>
-  <si>
-    <t>28 Barbadense</t>
-  </si>
-  <si>
-    <t>29 Bareiní</t>
-  </si>
-  <si>
-    <t>30 Belga</t>
-  </si>
-  <si>
-    <t>31 Beliceña</t>
-  </si>
-  <si>
-    <t>32 Beliceño</t>
-  </si>
-  <si>
-    <t>33 Beninés</t>
-  </si>
-  <si>
-    <t>34 Beninesa</t>
-  </si>
-  <si>
-    <t>35 Bielorrusa</t>
-  </si>
-  <si>
-    <t>36 Bielorruso</t>
-  </si>
-  <si>
-    <t>37 Birmana</t>
-  </si>
-  <si>
-    <t>38 Birmano</t>
-  </si>
-  <si>
-    <t>39 Bisauguineana</t>
-  </si>
-  <si>
-    <t>40 Bisauguineano</t>
-  </si>
-  <si>
-    <t>41 Boliviana</t>
-  </si>
-  <si>
-    <t>42 Boliviano</t>
-  </si>
-  <si>
-    <t>43 Bosnia</t>
-  </si>
-  <si>
-    <t>44 Bosnio</t>
-  </si>
-  <si>
-    <t>45 Botsuana</t>
-  </si>
-  <si>
-    <t>46 Botsuano</t>
-  </si>
-  <si>
-    <t>47 Brasileña</t>
-  </si>
-  <si>
-    <t>48 Brasileño</t>
-  </si>
-  <si>
-    <t>49 Británica</t>
-  </si>
-  <si>
-    <t>50 Británico</t>
-  </si>
-  <si>
-    <t>51 Bruneana</t>
-  </si>
-  <si>
-    <t>52 Bruneano</t>
-  </si>
-  <si>
-    <t>53 Búlgara</t>
-  </si>
-  <si>
-    <t>54 Búlgaro</t>
-  </si>
-  <si>
-    <t>55 Burkinés</t>
-  </si>
-  <si>
-    <t>56 Burundés</t>
-  </si>
-  <si>
-    <t>57 Burundesa</t>
-  </si>
-  <si>
-    <t>58 Butanés</t>
-  </si>
-  <si>
-    <t>59 Butanesa</t>
-  </si>
-  <si>
-    <t>60 Caboverdiana</t>
-  </si>
-  <si>
-    <t>61 Caboverdiano</t>
-  </si>
-  <si>
-    <t>62 Camboyana</t>
-  </si>
-  <si>
-    <t>63 Camboyano</t>
-  </si>
-  <si>
-    <t>64 Camerunés</t>
-  </si>
-  <si>
-    <t>65 Camerunesa</t>
-  </si>
-  <si>
-    <t>66 Canadiense</t>
-  </si>
-  <si>
-    <t>67 Catarí</t>
-  </si>
-  <si>
-    <t>68 Centroafricana</t>
-  </si>
-  <si>
-    <t>69 Centroafricano</t>
-  </si>
-  <si>
-    <t>70 Chadiana</t>
-  </si>
-  <si>
-    <t>71 Chadiano</t>
-  </si>
-  <si>
-    <t>72 Checa</t>
-  </si>
-  <si>
-    <t>73 Checo</t>
-  </si>
-  <si>
-    <t>74 Chilena</t>
-  </si>
-  <si>
-    <t>75 Chileno</t>
-  </si>
-  <si>
-    <t>76 China</t>
-  </si>
-  <si>
-    <t>77 Chino</t>
-  </si>
-  <si>
-    <t>78 Chipriota</t>
-  </si>
-  <si>
-    <t>79 Colombiana</t>
-  </si>
-  <si>
-    <t>80 Colombiano</t>
-  </si>
-  <si>
-    <t>81 Comorense</t>
-  </si>
-  <si>
-    <t>82 Congoleña</t>
-  </si>
-  <si>
-    <t>83 Congoleño</t>
-  </si>
-  <si>
-    <t>84 Costarricense</t>
-  </si>
-  <si>
-    <t>85 Croata</t>
-  </si>
-  <si>
-    <t>86 Cubana</t>
-  </si>
-  <si>
-    <t>87 Cubano</t>
-  </si>
-  <si>
-    <t>88 Dinamarqués</t>
-  </si>
-  <si>
-    <t>89 Dinamarquesa</t>
-  </si>
-  <si>
-    <t>90 Dominicana</t>
-  </si>
-  <si>
-    <t>91 Dominicano</t>
-  </si>
-  <si>
-    <t>92 Dominiqués</t>
-  </si>
-  <si>
-    <t>93 Dominiquesa</t>
-  </si>
-  <si>
-    <t>94 Ecuatoguineana</t>
-  </si>
-  <si>
-    <t>95 Ecuatoguineano</t>
-  </si>
-  <si>
-    <t>96 Ecuatoriana</t>
-  </si>
-  <si>
-    <t>97 Ecuatoriano</t>
-  </si>
-  <si>
-    <t>98 Egipcia</t>
-  </si>
-  <si>
-    <t>99 Egipcio</t>
-  </si>
-  <si>
-    <t>100 Emiratí</t>
-  </si>
-  <si>
-    <t>101 Eritrea</t>
-  </si>
-  <si>
-    <t>102 Eritreo</t>
-  </si>
-  <si>
-    <t>103 Eslovaca</t>
-  </si>
-  <si>
-    <t>104 Eslovaco</t>
-  </si>
-  <si>
-    <t>105 Eslovena</t>
-  </si>
-  <si>
-    <t>106 Esloveno</t>
-  </si>
-  <si>
-    <t>107 Española</t>
-  </si>
-  <si>
-    <t>108 Española</t>
-  </si>
-  <si>
-    <t>109 Esrilanqués</t>
-  </si>
-  <si>
-    <t>110 Esrilanquesa</t>
-  </si>
-  <si>
-    <t>111 Estadounidense</t>
-  </si>
-  <si>
-    <t>112 Estoniana</t>
-  </si>
-  <si>
-    <t>113 Estoniano</t>
-  </si>
-  <si>
-    <t>114 Etiope</t>
-  </si>
-  <si>
-    <t>115 Filipina</t>
-  </si>
-  <si>
-    <t>116 Filipino</t>
-  </si>
-  <si>
-    <t>117 Finlandés</t>
-  </si>
-  <si>
-    <t>118 Finlandesa</t>
-  </si>
-  <si>
-    <t>119 Fiyiana</t>
-  </si>
-  <si>
-    <t>120 Fiyiano</t>
-  </si>
-  <si>
-    <t>121 Francés</t>
-  </si>
-  <si>
-    <t>122 Francesa</t>
-  </si>
-  <si>
-    <t>123 Gabonés</t>
-  </si>
-  <si>
-    <t>124 Gabonesa</t>
-  </si>
-  <si>
-    <t>125 Gambiana</t>
-  </si>
-  <si>
-    <t>126 Gambiano</t>
-  </si>
-  <si>
-    <t>127 Georgiana</t>
-  </si>
-  <si>
-    <t>128 Georgiano</t>
-  </si>
-  <si>
-    <t>129 Ghanés</t>
-  </si>
-  <si>
-    <t>130 Ghanesa</t>
-  </si>
-  <si>
-    <t>131 Granadina</t>
-  </si>
-  <si>
-    <t>132 Granadino</t>
-  </si>
-  <si>
-    <t>133 Griega</t>
-  </si>
-  <si>
-    <t>134 Griego</t>
-  </si>
-  <si>
-    <t>135 Guatemalteca</t>
-  </si>
-  <si>
-    <t>136 Guatemalteco</t>
-  </si>
-  <si>
-    <t>137 Guineana</t>
-  </si>
-  <si>
-    <t>138 Guineano</t>
-  </si>
-  <si>
-    <t>139 Guyanés</t>
-  </si>
-  <si>
-    <t>140 Guyanesa</t>
-  </si>
-  <si>
-    <t>141 Haitiana</t>
-  </si>
-  <si>
-    <t>142 Haitiano</t>
-  </si>
-  <si>
-    <t>143 Hindú</t>
-  </si>
-  <si>
-    <t>144 Hondureña</t>
-  </si>
-  <si>
-    <t>145 Hondureño</t>
-  </si>
-  <si>
-    <t>146 Húngara</t>
-  </si>
-  <si>
-    <t>147 Húngaro</t>
-  </si>
-  <si>
-    <t>148 Indonesia</t>
-  </si>
-  <si>
-    <t>149 Indonesio</t>
-  </si>
-  <si>
-    <t>150 Iraní</t>
-  </si>
-  <si>
-    <t>151 Iraquí</t>
-  </si>
-  <si>
-    <t>152 Irlandés</t>
-  </si>
-  <si>
-    <t>153 Irlandesa</t>
-  </si>
-  <si>
-    <t>154 Islandés</t>
-  </si>
-  <si>
-    <t>155 Islandesa</t>
-  </si>
-  <si>
-    <t>156 Israelí</t>
-  </si>
-  <si>
-    <t>157 Italiana</t>
-  </si>
-  <si>
-    <t>158 Italiano</t>
-  </si>
-  <si>
-    <t>159 Jamaicana</t>
-  </si>
-  <si>
-    <t>160 Jamaicano</t>
-  </si>
-  <si>
-    <t>161 Japonés</t>
-  </si>
-  <si>
-    <t>162 Japonesa</t>
-  </si>
-  <si>
-    <t>163 Jordana</t>
-  </si>
-  <si>
-    <t>164 Jordano</t>
-  </si>
-  <si>
-    <t>165 Kazajo</t>
-  </si>
-  <si>
-    <t>166 Keniana</t>
-  </si>
-  <si>
-    <t>167 Keniano</t>
-  </si>
-  <si>
-    <t>168 Kirguís</t>
-  </si>
-  <si>
-    <t>169 Kiribatiana</t>
-  </si>
-  <si>
-    <t>170 Kiribatiano</t>
-  </si>
-  <si>
-    <t>171 Kuwaiti</t>
-  </si>
-  <si>
-    <t>172 Laosiana</t>
-  </si>
-  <si>
-    <t>173 Laosiano</t>
-  </si>
-  <si>
-    <t>174 Lesotense</t>
-  </si>
-  <si>
-    <t>175 Letón</t>
-  </si>
-  <si>
-    <t>176 Letona</t>
-  </si>
-  <si>
-    <t>177 Libanés</t>
-  </si>
-  <si>
-    <t>178 Libanesa</t>
-  </si>
-  <si>
-    <t>179 Liberiana</t>
-  </si>
-  <si>
-    <t>180 Liberiano</t>
-  </si>
-  <si>
-    <t>181 Libia</t>
-  </si>
-  <si>
-    <t>182 Libio</t>
-  </si>
-  <si>
-    <t>183 Liechtensteiniana</t>
-  </si>
-  <si>
-    <t>184 Liechtensteiniano</t>
-  </si>
-  <si>
-    <t>185 Lituana</t>
-  </si>
-  <si>
-    <t>186 Lituano</t>
-  </si>
-  <si>
-    <t>187 Luxemburgués</t>
-  </si>
-  <si>
-    <t>188 Luxemburguesa</t>
-  </si>
-  <si>
-    <t>189 Macedonia</t>
-  </si>
-  <si>
-    <t>190 Macedonio</t>
-  </si>
-  <si>
-    <t>191 Malasio</t>
-  </si>
-  <si>
-    <t>192 Malauíes</t>
-  </si>
-  <si>
-    <t>193 Maldiva</t>
-  </si>
-  <si>
-    <t>194 Maldivo</t>
-  </si>
-  <si>
-    <t>195 Malgache</t>
-  </si>
-  <si>
-    <t>196 Maliense</t>
-  </si>
-  <si>
-    <t>197 Maltés</t>
-  </si>
-  <si>
-    <t>198 Maltesa</t>
-  </si>
-  <si>
-    <t>199 Marfileña</t>
-  </si>
-  <si>
-    <t>200 Marfileño</t>
-  </si>
-  <si>
-    <t>201 Marroquí</t>
-  </si>
-  <si>
-    <t>202 Marshalés</t>
-  </si>
-  <si>
-    <t>203 Marshalesa</t>
-  </si>
-  <si>
-    <t>204 Mauriciana</t>
-  </si>
-  <si>
-    <t>205 Mauriciano</t>
-  </si>
-  <si>
-    <t>206 Mauritana</t>
-  </si>
-  <si>
-    <t>207 Mauritano</t>
-  </si>
-  <si>
-    <t>208 Mexicana</t>
-  </si>
-  <si>
-    <t>209 Mexicano</t>
-  </si>
-  <si>
-    <t>210 Micronesia</t>
-  </si>
-  <si>
-    <t>211 Micronesio</t>
-  </si>
-  <si>
-    <t>212 Moldava</t>
-  </si>
-  <si>
-    <t>213 Moldavo</t>
-  </si>
-  <si>
-    <t>214 Monegasca</t>
-  </si>
-  <si>
-    <t>215 Monegasco</t>
-  </si>
-  <si>
-    <t>216 Mongol</t>
-  </si>
-  <si>
-    <t>217 Mongola</t>
-  </si>
-  <si>
-    <t>218 Montenegrina</t>
-  </si>
-  <si>
-    <t>219 Montenegrino</t>
-  </si>
-  <si>
-    <t>220 Mozambiqueña</t>
-  </si>
-  <si>
-    <t>221 Mozambiqueño</t>
-  </si>
-  <si>
-    <t>222 Namibia</t>
-  </si>
-  <si>
-    <t>223 Namibio</t>
-  </si>
-  <si>
-    <t>224 Nauruano</t>
-  </si>
-  <si>
-    <t>225 Neerlandés</t>
-  </si>
-  <si>
-    <t>226 Neerlandesa</t>
-  </si>
-  <si>
-    <t>227 Neozelandés</t>
-  </si>
-  <si>
-    <t>228 Neozelandesa</t>
-  </si>
-  <si>
-    <t>229 Nepalí</t>
-  </si>
-  <si>
-    <t>230 Nicaragüense</t>
-  </si>
-  <si>
-    <t>231 Nigeriana</t>
-  </si>
-  <si>
-    <t>232 Nigeriano</t>
-  </si>
-  <si>
-    <t>233 Nigerina</t>
-  </si>
-  <si>
-    <t>234 Nigerino</t>
-  </si>
-  <si>
-    <t>235 Norcoreana</t>
-  </si>
-  <si>
-    <t>236 Norcoreano</t>
-  </si>
-  <si>
-    <t>237 Noruega</t>
-  </si>
-  <si>
-    <t>238 Noruego</t>
-  </si>
-  <si>
-    <t>239 Omaní</t>
-  </si>
-  <si>
-    <t>240 Pakistaní</t>
-  </si>
-  <si>
-    <t>241 Palauana</t>
-  </si>
-  <si>
-    <t>242 Palauano</t>
-  </si>
-  <si>
-    <t>243 Palestina</t>
-  </si>
-  <si>
-    <t>244 Palestino</t>
-  </si>
-  <si>
-    <t>245 Panameña</t>
-  </si>
-  <si>
-    <t>246 Panameño</t>
-  </si>
-  <si>
-    <t>247 Papuana</t>
-  </si>
-  <si>
-    <t>248 Papuano</t>
-  </si>
-  <si>
-    <t>249 Paraguaya</t>
-  </si>
-  <si>
-    <t>250 Paraguayo</t>
-  </si>
-  <si>
-    <t>251 Peruana</t>
-  </si>
-  <si>
-    <t>252 Peruano</t>
-  </si>
-  <si>
-    <t>253 Polaca</t>
-  </si>
-  <si>
-    <t>254 Polaco</t>
-  </si>
-  <si>
-    <t>255 Portugués</t>
-  </si>
-  <si>
-    <t>256 Portuguesa</t>
-  </si>
-  <si>
-    <t>257 Puertorriqueña</t>
-  </si>
-  <si>
-    <t>258 Puertorriqueño</t>
-  </si>
-  <si>
-    <t>259 Ruandés</t>
-  </si>
-  <si>
-    <t>260 Ruandesa</t>
-  </si>
-  <si>
-    <t>261 Rumana</t>
-  </si>
-  <si>
-    <t>262 Rumano</t>
-  </si>
-  <si>
-    <t>263 Rusa</t>
-  </si>
-  <si>
-    <t>264 Ruso</t>
-  </si>
-  <si>
-    <t>265 Saharaui</t>
-  </si>
-  <si>
-    <t>266 Salomonense</t>
-  </si>
-  <si>
-    <t>267 Salvadoreña</t>
-  </si>
-  <si>
-    <t>268 Salvadoreño</t>
-  </si>
-  <si>
-    <t>269 Samoana</t>
-  </si>
-  <si>
-    <t>270 Samoano</t>
-  </si>
-  <si>
-    <t>271 Sancristobaleña</t>
-  </si>
-  <si>
-    <t>272 Sancristobaleño</t>
-  </si>
-  <si>
-    <t>273 Sanmarinense</t>
-  </si>
-  <si>
-    <t>274 Santalucense</t>
-  </si>
-  <si>
-    <t>275 Santotomense</t>
-  </si>
-  <si>
-    <t>276 Sanvicentina</t>
-  </si>
-  <si>
-    <t>277 Sanvicentino</t>
-  </si>
-  <si>
-    <t>278 Saudí</t>
-  </si>
-  <si>
-    <t>279 Saudita</t>
-  </si>
-  <si>
-    <t>280 Senegalés</t>
-  </si>
-  <si>
-    <t>281 Senegalesa</t>
-  </si>
-  <si>
-    <t>282 Serbia</t>
-  </si>
-  <si>
-    <t>283 Serbio</t>
-  </si>
-  <si>
-    <t>284 Seychellense</t>
-  </si>
-  <si>
-    <t>285 Sierraleonés</t>
-  </si>
-  <si>
-    <t>286 Sierraleonesa</t>
-  </si>
-  <si>
-    <t>287 Singapurense</t>
-  </si>
-  <si>
-    <t>288 Siria</t>
-  </si>
-  <si>
-    <t>289 Sirio</t>
-  </si>
-  <si>
-    <t>290 Somalí</t>
-  </si>
-  <si>
-    <t>291 Suazi</t>
-  </si>
-  <si>
-    <t>292 Sudafricana</t>
-  </si>
-  <si>
-    <t>293 Sudafricano</t>
-  </si>
-  <si>
-    <t>294 Sudanés</t>
-  </si>
-  <si>
-    <t>295 Sudanesa</t>
-  </si>
-  <si>
-    <t>296 Sueca</t>
-  </si>
-  <si>
-    <t>297 Sueco</t>
-  </si>
-  <si>
-    <t>298 Suiza</t>
-  </si>
-  <si>
-    <t>299 Suizo</t>
-  </si>
-  <si>
-    <t>300 Surcoreana</t>
-  </si>
-  <si>
-    <t>301 Surcoreano</t>
-  </si>
-  <si>
-    <t>302 Surinamés</t>
-  </si>
-  <si>
-    <t>303 Surinamesa</t>
-  </si>
-  <si>
-    <t>304 Sursudanés</t>
-  </si>
-  <si>
-    <t>305 Sursudanesa</t>
-  </si>
-  <si>
-    <t>306 Tailandés</t>
-  </si>
-  <si>
-    <t>307 Tailandesa</t>
-  </si>
-  <si>
-    <t>308 Taiwanés</t>
-  </si>
-  <si>
-    <t>309 Tanzana</t>
-  </si>
-  <si>
-    <t>310 Tanzano</t>
-  </si>
-  <si>
-    <t>311 Tayika</t>
-  </si>
-  <si>
-    <t>312 Tayiko</t>
-  </si>
-  <si>
-    <t>313 Timorense</t>
-  </si>
-  <si>
-    <t>314 Togolés</t>
-  </si>
-  <si>
-    <t>315 Togolesa</t>
-  </si>
-  <si>
-    <t>316 Tongana</t>
-  </si>
-  <si>
-    <t>317 Tongano</t>
-  </si>
-  <si>
-    <t>318 Trinitense</t>
-  </si>
-  <si>
-    <t>319 Tunecina</t>
-  </si>
-  <si>
-    <t>320 Tunecino</t>
-  </si>
-  <si>
-    <t>321 Turca</t>
-  </si>
-  <si>
-    <t>322 Turco</t>
-  </si>
-  <si>
-    <t>323 Turkmena</t>
-  </si>
-  <si>
-    <t>324 Turkmeno</t>
-  </si>
-  <si>
-    <t>325 Tuvaluana</t>
-  </si>
-  <si>
-    <t>326 Tuvaluano</t>
-  </si>
-  <si>
-    <t>327 Ucraniana</t>
-  </si>
-  <si>
-    <t>328 Ucraniano</t>
-  </si>
-  <si>
-    <t>329 Ugandés</t>
-  </si>
-  <si>
-    <t>330 Ugandesa</t>
-  </si>
-  <si>
-    <t>331 Uruguaya</t>
-  </si>
-  <si>
-    <t>332 Uruguayo</t>
-  </si>
-  <si>
-    <t>333 Uzbeka</t>
-  </si>
-  <si>
-    <t>334 Uzbeko</t>
-  </si>
-  <si>
-    <t>335 Vanuatuense</t>
-  </si>
-  <si>
-    <t>336 Vaticana</t>
-  </si>
-  <si>
-    <t>337 Vaticano</t>
-  </si>
-  <si>
-    <t>338 Venezolana</t>
-  </si>
-  <si>
-    <t>339 Venezolano</t>
-  </si>
-  <si>
-    <t>340 Vietnamita</t>
-  </si>
-  <si>
-    <t>341 Yemení</t>
-  </si>
-  <si>
-    <t>342 Yibutiana</t>
-  </si>
-  <si>
-    <t>343 Yibutiano</t>
-  </si>
-  <si>
-    <t>344 Zambiana</t>
-  </si>
-  <si>
-    <t>345 Zambiano</t>
-  </si>
-  <si>
-    <t>346 Zimbabuense</t>
-  </si>
-  <si>
     <t>NACIONALIDAD</t>
   </si>
   <si>
@@ -1190,6 +125,1068 @@
   </si>
   <si>
     <t>codigo</t>
+  </si>
+  <si>
+    <t>Afgana</t>
+  </si>
+  <si>
+    <t>Afgano</t>
+  </si>
+  <si>
+    <t>Albanés</t>
+  </si>
+  <si>
+    <t>Albanesa</t>
+  </si>
+  <si>
+    <t>Alemán</t>
+  </si>
+  <si>
+    <t>Alemana</t>
+  </si>
+  <si>
+    <t>Andorrana</t>
+  </si>
+  <si>
+    <t>Andorrano</t>
+  </si>
+  <si>
+    <t>Angoleña</t>
+  </si>
+  <si>
+    <t>Angoleño</t>
+  </si>
+  <si>
+    <t>Antiguana</t>
+  </si>
+  <si>
+    <t>Antiguano</t>
+  </si>
+  <si>
+    <t>Argelina</t>
+  </si>
+  <si>
+    <t>Argelino</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Argentino</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Armenio</t>
+  </si>
+  <si>
+    <t>Australiana</t>
+  </si>
+  <si>
+    <t>Australiano</t>
+  </si>
+  <si>
+    <t>Austriaca</t>
+  </si>
+  <si>
+    <t>Austriaco</t>
+  </si>
+  <si>
+    <t>Azerbaiyana</t>
+  </si>
+  <si>
+    <t>Azerbaiyano</t>
+  </si>
+  <si>
+    <t>Bahameña</t>
+  </si>
+  <si>
+    <t>Bahameño</t>
+  </si>
+  <si>
+    <t>Bangladesí</t>
+  </si>
+  <si>
+    <t>Barbadense</t>
+  </si>
+  <si>
+    <t>Bareiní</t>
+  </si>
+  <si>
+    <t>Belga</t>
+  </si>
+  <si>
+    <t>Beliceña</t>
+  </si>
+  <si>
+    <t>Beliceño</t>
+  </si>
+  <si>
+    <t>Beninés</t>
+  </si>
+  <si>
+    <t>Beninesa</t>
+  </si>
+  <si>
+    <t>Bielorrusa</t>
+  </si>
+  <si>
+    <t>Bielorruso</t>
+  </si>
+  <si>
+    <t>Birmana</t>
+  </si>
+  <si>
+    <t>Birmano</t>
+  </si>
+  <si>
+    <t>Bisauguineana</t>
+  </si>
+  <si>
+    <t>Bisauguineano</t>
+  </si>
+  <si>
+    <t>Boliviana</t>
+  </si>
+  <si>
+    <t>Boliviano</t>
+  </si>
+  <si>
+    <t>Bosnia</t>
+  </si>
+  <si>
+    <t>Bosnio</t>
+  </si>
+  <si>
+    <t>Botsuana</t>
+  </si>
+  <si>
+    <t>Botsuano</t>
+  </si>
+  <si>
+    <t>Brasileña</t>
+  </si>
+  <si>
+    <t>Brasileño</t>
+  </si>
+  <si>
+    <t>Británica</t>
+  </si>
+  <si>
+    <t>Británico</t>
+  </si>
+  <si>
+    <t>Bruneana</t>
+  </si>
+  <si>
+    <t>Bruneano</t>
+  </si>
+  <si>
+    <t>Búlgara</t>
+  </si>
+  <si>
+    <t>Búlgaro</t>
+  </si>
+  <si>
+    <t>Burkinés</t>
+  </si>
+  <si>
+    <t>Burundés</t>
+  </si>
+  <si>
+    <t>Burundesa</t>
+  </si>
+  <si>
+    <t>Butanés</t>
+  </si>
+  <si>
+    <t>Butanesa</t>
+  </si>
+  <si>
+    <t>Caboverdiana</t>
+  </si>
+  <si>
+    <t>Caboverdiano</t>
+  </si>
+  <si>
+    <t>Camboyana</t>
+  </si>
+  <si>
+    <t>Camboyano</t>
+  </si>
+  <si>
+    <t>Camerunés</t>
+  </si>
+  <si>
+    <t>Camerunesa</t>
+  </si>
+  <si>
+    <t>Canadiense</t>
+  </si>
+  <si>
+    <t>Catarí</t>
+  </si>
+  <si>
+    <t>Centroafricana</t>
+  </si>
+  <si>
+    <t>Centroafricano</t>
+  </si>
+  <si>
+    <t>Chadiana</t>
+  </si>
+  <si>
+    <t>Chadiano</t>
+  </si>
+  <si>
+    <t>Checa</t>
+  </si>
+  <si>
+    <t>Checo</t>
+  </si>
+  <si>
+    <t>Chilena</t>
+  </si>
+  <si>
+    <t>Chileno</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Chino</t>
+  </si>
+  <si>
+    <t>Chipriota</t>
+  </si>
+  <si>
+    <t>Colombiana</t>
+  </si>
+  <si>
+    <t>Colombiano</t>
+  </si>
+  <si>
+    <t>Comorense</t>
+  </si>
+  <si>
+    <t>Congoleña</t>
+  </si>
+  <si>
+    <t>Congoleño</t>
+  </si>
+  <si>
+    <t>Costarricense</t>
+  </si>
+  <si>
+    <t>Croata</t>
+  </si>
+  <si>
+    <t>Cubana</t>
+  </si>
+  <si>
+    <t>Cubano</t>
+  </si>
+  <si>
+    <t>Dinamarqués</t>
+  </si>
+  <si>
+    <t>Dinamarquesa</t>
+  </si>
+  <si>
+    <t>Dominicana</t>
+  </si>
+  <si>
+    <t>Dominicano</t>
+  </si>
+  <si>
+    <t>Dominiqués</t>
+  </si>
+  <si>
+    <t>Dominiquesa</t>
+  </si>
+  <si>
+    <t>Ecuatoguineana</t>
+  </si>
+  <si>
+    <t>Ecuatoguineano</t>
+  </si>
+  <si>
+    <t>Ecuatoriana</t>
+  </si>
+  <si>
+    <t>Ecuatoriano</t>
+  </si>
+  <si>
+    <t>Egipcia</t>
+  </si>
+  <si>
+    <t>Egipcio</t>
+  </si>
+  <si>
+    <t>Emiratí</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Eritreo</t>
+  </si>
+  <si>
+    <t>Eslovaca</t>
+  </si>
+  <si>
+    <t>Eslovaco</t>
+  </si>
+  <si>
+    <t>Eslovena</t>
+  </si>
+  <si>
+    <t>Esloveno</t>
+  </si>
+  <si>
+    <t>Española</t>
+  </si>
+  <si>
+    <t>Esrilanqués</t>
+  </si>
+  <si>
+    <t>Esrilanquesa</t>
+  </si>
+  <si>
+    <t>Estadounidense</t>
+  </si>
+  <si>
+    <t>Estoniana</t>
+  </si>
+  <si>
+    <t>Estoniano</t>
+  </si>
+  <si>
+    <t>Etiope</t>
+  </si>
+  <si>
+    <t>Filipina</t>
+  </si>
+  <si>
+    <t>Filipino</t>
+  </si>
+  <si>
+    <t>Finlandés</t>
+  </si>
+  <si>
+    <t>Finlandesa</t>
+  </si>
+  <si>
+    <t>Fiyiana</t>
+  </si>
+  <si>
+    <t>Fiyiano</t>
+  </si>
+  <si>
+    <t>Francés</t>
+  </si>
+  <si>
+    <t>Francesa</t>
+  </si>
+  <si>
+    <t>Gabonés</t>
+  </si>
+  <si>
+    <t>Gabonesa</t>
+  </si>
+  <si>
+    <t>Gambiana</t>
+  </si>
+  <si>
+    <t>Gambiano</t>
+  </si>
+  <si>
+    <t>Georgiana</t>
+  </si>
+  <si>
+    <t>Georgiano</t>
+  </si>
+  <si>
+    <t>Ghanés</t>
+  </si>
+  <si>
+    <t>Ghanesa</t>
+  </si>
+  <si>
+    <t>Granadina</t>
+  </si>
+  <si>
+    <t>Granadino</t>
+  </si>
+  <si>
+    <t>Griega</t>
+  </si>
+  <si>
+    <t>Griego</t>
+  </si>
+  <si>
+    <t>Guatemalteca</t>
+  </si>
+  <si>
+    <t>Guatemalteco</t>
+  </si>
+  <si>
+    <t>Guineana</t>
+  </si>
+  <si>
+    <t>Guineano</t>
+  </si>
+  <si>
+    <t>Guyanés</t>
+  </si>
+  <si>
+    <t>Guyanesa</t>
+  </si>
+  <si>
+    <t>Haitiana</t>
+  </si>
+  <si>
+    <t>Haitiano</t>
+  </si>
+  <si>
+    <t>Hindú</t>
+  </si>
+  <si>
+    <t>Hondureña</t>
+  </si>
+  <si>
+    <t>Hondureño</t>
+  </si>
+  <si>
+    <t>Húngara</t>
+  </si>
+  <si>
+    <t>Húngaro</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Indonesio</t>
+  </si>
+  <si>
+    <t>Iraní</t>
+  </si>
+  <si>
+    <t>Iraquí</t>
+  </si>
+  <si>
+    <t>Irlandés</t>
+  </si>
+  <si>
+    <t>Irlandesa</t>
+  </si>
+  <si>
+    <t>Islandés</t>
+  </si>
+  <si>
+    <t>Islandesa</t>
+  </si>
+  <si>
+    <t>Israelí</t>
+  </si>
+  <si>
+    <t>Italiana</t>
+  </si>
+  <si>
+    <t>Italiano</t>
+  </si>
+  <si>
+    <t>Jamaicana</t>
+  </si>
+  <si>
+    <t>Jamaicano</t>
+  </si>
+  <si>
+    <t>Japonés</t>
+  </si>
+  <si>
+    <t>Japonesa</t>
+  </si>
+  <si>
+    <t>Jordana</t>
+  </si>
+  <si>
+    <t>Jordano</t>
+  </si>
+  <si>
+    <t>Kazajo</t>
+  </si>
+  <si>
+    <t>Keniana</t>
+  </si>
+  <si>
+    <t>Keniano</t>
+  </si>
+  <si>
+    <t>Kirguís</t>
+  </si>
+  <si>
+    <t>Kiribatiana</t>
+  </si>
+  <si>
+    <t>Kiribatiano</t>
+  </si>
+  <si>
+    <t>Kuwaiti</t>
+  </si>
+  <si>
+    <t>Laosiana</t>
+  </si>
+  <si>
+    <t>Laosiano</t>
+  </si>
+  <si>
+    <t>Lesotense</t>
+  </si>
+  <si>
+    <t>Letón</t>
+  </si>
+  <si>
+    <t>Letona</t>
+  </si>
+  <si>
+    <t>Libanés</t>
+  </si>
+  <si>
+    <t>Libanesa</t>
+  </si>
+  <si>
+    <t>Liberiana</t>
+  </si>
+  <si>
+    <t>Liberiano</t>
+  </si>
+  <si>
+    <t>Libia</t>
+  </si>
+  <si>
+    <t>Libio</t>
+  </si>
+  <si>
+    <t>Liechtensteiniana</t>
+  </si>
+  <si>
+    <t>Liechtensteiniano</t>
+  </si>
+  <si>
+    <t>Lituana</t>
+  </si>
+  <si>
+    <t>Lituano</t>
+  </si>
+  <si>
+    <t>Luxemburgués</t>
+  </si>
+  <si>
+    <t>Luxemburguesa</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Macedonio</t>
+  </si>
+  <si>
+    <t>Malasio</t>
+  </si>
+  <si>
+    <t>Malauíes</t>
+  </si>
+  <si>
+    <t>Maldiva</t>
+  </si>
+  <si>
+    <t>Maldivo</t>
+  </si>
+  <si>
+    <t>Malgache</t>
+  </si>
+  <si>
+    <t>Maliense</t>
+  </si>
+  <si>
+    <t>Maltés</t>
+  </si>
+  <si>
+    <t>Maltesa</t>
+  </si>
+  <si>
+    <t>Marfileña</t>
+  </si>
+  <si>
+    <t>Marfileño</t>
+  </si>
+  <si>
+    <t>Marroquí</t>
+  </si>
+  <si>
+    <t>Marshalés</t>
+  </si>
+  <si>
+    <t>Marshalesa</t>
+  </si>
+  <si>
+    <t>Mauriciana</t>
+  </si>
+  <si>
+    <t>Mauriciano</t>
+  </si>
+  <si>
+    <t>Mauritana</t>
+  </si>
+  <si>
+    <t>Mauritano</t>
+  </si>
+  <si>
+    <t>Mexicana</t>
+  </si>
+  <si>
+    <t>Mexicano</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Micronesio</t>
+  </si>
+  <si>
+    <t>Moldava</t>
+  </si>
+  <si>
+    <t>Moldavo</t>
+  </si>
+  <si>
+    <t>Monegasca</t>
+  </si>
+  <si>
+    <t>Monegasco</t>
+  </si>
+  <si>
+    <t>Mongol</t>
+  </si>
+  <si>
+    <t>Mongola</t>
+  </si>
+  <si>
+    <t>Montenegrina</t>
+  </si>
+  <si>
+    <t>Montenegrino</t>
+  </si>
+  <si>
+    <t>Mozambiqueña</t>
+  </si>
+  <si>
+    <t>Mozambiqueño</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Namibio</t>
+  </si>
+  <si>
+    <t>Nauruano</t>
+  </si>
+  <si>
+    <t>Neerlandés</t>
+  </si>
+  <si>
+    <t>Neerlandesa</t>
+  </si>
+  <si>
+    <t>Neozelandés</t>
+  </si>
+  <si>
+    <t>Neozelandesa</t>
+  </si>
+  <si>
+    <t>Nepalí</t>
+  </si>
+  <si>
+    <t>Nicaragüense</t>
+  </si>
+  <si>
+    <t>Nigeriana</t>
+  </si>
+  <si>
+    <t>Nigeriano</t>
+  </si>
+  <si>
+    <t>Nigerina</t>
+  </si>
+  <si>
+    <t>Nigerino</t>
+  </si>
+  <si>
+    <t>Norcoreana</t>
+  </si>
+  <si>
+    <t>Norcoreano</t>
+  </si>
+  <si>
+    <t>Noruega</t>
+  </si>
+  <si>
+    <t>Noruego</t>
+  </si>
+  <si>
+    <t>Omaní</t>
+  </si>
+  <si>
+    <t>Pakistaní</t>
+  </si>
+  <si>
+    <t>Palauana</t>
+  </si>
+  <si>
+    <t>Palauano</t>
+  </si>
+  <si>
+    <t>Palestina</t>
+  </si>
+  <si>
+    <t>Palestino</t>
+  </si>
+  <si>
+    <t>Panameña</t>
+  </si>
+  <si>
+    <t>Panameño</t>
+  </si>
+  <si>
+    <t>Papuana</t>
+  </si>
+  <si>
+    <t>Papuano</t>
+  </si>
+  <si>
+    <t>Paraguaya</t>
+  </si>
+  <si>
+    <t>Paraguayo</t>
+  </si>
+  <si>
+    <t>Peruana</t>
+  </si>
+  <si>
+    <t>Peruano</t>
+  </si>
+  <si>
+    <t>Polaca</t>
+  </si>
+  <si>
+    <t>Polaco</t>
+  </si>
+  <si>
+    <t>Portugués</t>
+  </si>
+  <si>
+    <t>Portuguesa</t>
+  </si>
+  <si>
+    <t>Puertorriqueña</t>
+  </si>
+  <si>
+    <t>Puertorriqueño</t>
+  </si>
+  <si>
+    <t>Ruandés</t>
+  </si>
+  <si>
+    <t>Ruandesa</t>
+  </si>
+  <si>
+    <t>Rumana</t>
+  </si>
+  <si>
+    <t>Rumano</t>
+  </si>
+  <si>
+    <t>Rusa</t>
+  </si>
+  <si>
+    <t>Ruso</t>
+  </si>
+  <si>
+    <t>Saharaui</t>
+  </si>
+  <si>
+    <t>Salomonense</t>
+  </si>
+  <si>
+    <t>Salvadoreña</t>
+  </si>
+  <si>
+    <t>Salvadoreño</t>
+  </si>
+  <si>
+    <t>Samoana</t>
+  </si>
+  <si>
+    <t>Samoano</t>
+  </si>
+  <si>
+    <t>Sancristobaleña</t>
+  </si>
+  <si>
+    <t>Sancristobaleño</t>
+  </si>
+  <si>
+    <t>Sanmarinense</t>
+  </si>
+  <si>
+    <t>Santalucense</t>
+  </si>
+  <si>
+    <t>Santotomense</t>
+  </si>
+  <si>
+    <t>Sanvicentina</t>
+  </si>
+  <si>
+    <t>Sanvicentino</t>
+  </si>
+  <si>
+    <t>Saudí</t>
+  </si>
+  <si>
+    <t>Saudita</t>
+  </si>
+  <si>
+    <t>Senegalés</t>
+  </si>
+  <si>
+    <t>Senegalesa</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Serbio</t>
+  </si>
+  <si>
+    <t>Seychellense</t>
+  </si>
+  <si>
+    <t>Sierraleonés</t>
+  </si>
+  <si>
+    <t>Sierraleonesa</t>
+  </si>
+  <si>
+    <t>Singapurense</t>
+  </si>
+  <si>
+    <t>Siria</t>
+  </si>
+  <si>
+    <t>Sirio</t>
+  </si>
+  <si>
+    <t>Somalí</t>
+  </si>
+  <si>
+    <t>Suazi</t>
+  </si>
+  <si>
+    <t>Sudafricana</t>
+  </si>
+  <si>
+    <t>Sudafricano</t>
+  </si>
+  <si>
+    <t>Sudanés</t>
+  </si>
+  <si>
+    <t>Sudanesa</t>
+  </si>
+  <si>
+    <t>Sueca</t>
+  </si>
+  <si>
+    <t>Sueco</t>
+  </si>
+  <si>
+    <t>Suiza</t>
+  </si>
+  <si>
+    <t>Suizo</t>
+  </si>
+  <si>
+    <t>Surcoreana</t>
+  </si>
+  <si>
+    <t>Surcoreano</t>
+  </si>
+  <si>
+    <t>Surinamés</t>
+  </si>
+  <si>
+    <t>Surinamesa</t>
+  </si>
+  <si>
+    <t>Sursudanés</t>
+  </si>
+  <si>
+    <t>Sursudanesa</t>
+  </si>
+  <si>
+    <t>Tailandés</t>
+  </si>
+  <si>
+    <t>Tailandesa</t>
+  </si>
+  <si>
+    <t>Taiwanés</t>
+  </si>
+  <si>
+    <t>Tanzana</t>
+  </si>
+  <si>
+    <t>Tanzano</t>
+  </si>
+  <si>
+    <t>Tayika</t>
+  </si>
+  <si>
+    <t>Tayiko</t>
+  </si>
+  <si>
+    <t>Timorense</t>
+  </si>
+  <si>
+    <t>Togolés</t>
+  </si>
+  <si>
+    <t>Togolesa</t>
+  </si>
+  <si>
+    <t>Tongana</t>
+  </si>
+  <si>
+    <t>Tongano</t>
+  </si>
+  <si>
+    <t>Trinitense</t>
+  </si>
+  <si>
+    <t>Tunecina</t>
+  </si>
+  <si>
+    <t>Tunecino</t>
+  </si>
+  <si>
+    <t>Turca</t>
+  </si>
+  <si>
+    <t>Turco</t>
+  </si>
+  <si>
+    <t>Turkmena</t>
+  </si>
+  <si>
+    <t>Turkmeno</t>
+  </si>
+  <si>
+    <t>Tuvaluana</t>
+  </si>
+  <si>
+    <t>Tuvaluano</t>
+  </si>
+  <si>
+    <t>Ucraniana</t>
+  </si>
+  <si>
+    <t>Ucraniano</t>
+  </si>
+  <si>
+    <t>Ugandés</t>
+  </si>
+  <si>
+    <t>Ugandesa</t>
+  </si>
+  <si>
+    <t>Uruguaya</t>
+  </si>
+  <si>
+    <t>Uruguayo</t>
+  </si>
+  <si>
+    <t>Uzbeka</t>
+  </si>
+  <si>
+    <t>Uzbeko</t>
+  </si>
+  <si>
+    <t>Vanuatuense</t>
+  </si>
+  <si>
+    <t>Vaticana</t>
+  </si>
+  <si>
+    <t>Vaticano</t>
+  </si>
+  <si>
+    <t>Venezolana</t>
+  </si>
+  <si>
+    <t>Venezolano</t>
+  </si>
+  <si>
+    <t>Vietnamita</t>
+  </si>
+  <si>
+    <t>Yemení</t>
+  </si>
+  <si>
+    <t>Yibutiana</t>
+  </si>
+  <si>
+    <t>Yibutiano</t>
+  </si>
+  <si>
+    <t>Zambiana</t>
+  </si>
+  <si>
+    <t>Zambiano</t>
+  </si>
+  <si>
+    <t>Zimbabuense</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Inactivo</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Soltero/a</t>
+  </si>
+  <si>
+    <t>Casado/a</t>
+  </si>
+  <si>
+    <t>Divorciado/a</t>
+  </si>
+  <si>
+    <t>Viudo/a</t>
+  </si>
+  <si>
+    <t>Union de Hecho</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1565,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1577,7 +1574,7 @@
     <col min="2" max="2" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1605,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>387</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1632,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>386</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>6</v>
@@ -1644,7 +1641,7 @@
         <v>7</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>8</v>
@@ -1652,7 +1649,7 @@
     </row>
     <row r="2" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>385</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>20</v>
@@ -1664,10 +1661,10 @@
         <v>12554</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>386</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>381</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
@@ -1676,10 +1673,10 @@
         <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>33</v>
+        <v>378</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>12</v>
@@ -1688,7 +1685,7 @@
         <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>14</v>
@@ -1700,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>383</v>
+        <v>28</v>
       </c>
       <c r="R2" s="3" t="b">
         <v>1</v>
@@ -1734,6 +1731,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="L2" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -1778,7 +1778,7 @@
   <dimension ref="B1:J347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,30 +1795,30 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>382</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>380</v>
       </c>
       <c r="F2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -1826,16 +1826,16 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>386</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>381</v>
       </c>
       <c r="F3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H3" t="s">
         <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -1843,1731 +1843,1731 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>383</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>384</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>385</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H50" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H51" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H67" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H70" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H72" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H73" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H74" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H75" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H78" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H79" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H80" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H81" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H82" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H83" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H85" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H86" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H87" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H88" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H89" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H90" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H91" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H92" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H93" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H94" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H95" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H96" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H97" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H98" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H99" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H100" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H101" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H102" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H103" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H104" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H105" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H107" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H108" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H109" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H110" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H111" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H112" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H113" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H114" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H115" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H116" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H117" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H118" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H119" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H120" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H121" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H122" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H123" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H124" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H125" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H126" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H127" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H128" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H129" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H130" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H131" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H132" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H133" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H134" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H135" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H136" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H137" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H138" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H139" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H140" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H141" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H142" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H143" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H144" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H145" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H146" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="147" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H147" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H148" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H149" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H150" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H151" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H152" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="153" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H153" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H154" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H155" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H156" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H157" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H158" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H159" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H160" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H161" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H162" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H163" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H164" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="165" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H165" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H166" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="167" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H167" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H168" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="169" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H169" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H170" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H171" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="172" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H172" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="173" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H173" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="174" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H174" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="175" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H175" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="176" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H176" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="177" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H177" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="178" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H178" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="179" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H179" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="180" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H180" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="181" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H181" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H182" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="183" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H183" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="184" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H184" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H185" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H186" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H187" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H188" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="189" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H189" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="190" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H190" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H191" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="192" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H192" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="193" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H193" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H194" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="195" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H195" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="196" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H196" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H197" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H198" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="199" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H199" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H200" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="201" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H201" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H202" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="203" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H203" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="204" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H204" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="205" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H205" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="206" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H206" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="207" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H207" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="208" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H208" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="209" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H209" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="210" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H210" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="211" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H211" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="212" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H212" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="213" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H213" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="214" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H214" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="215" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H215" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="216" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H216" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="217" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H217" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="218" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H218" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="219" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H219" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="220" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H220" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="221" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H221" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="222" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H222" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="223" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H223" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="224" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H224" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="225" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H225" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="226" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H226" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="227" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H227" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H228" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="229" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H229" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="230" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H230" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="231" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H231" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="232" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H232" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="233" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H233" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="234" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H234" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="235" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H235" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="236" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H236" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="237" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H237" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="238" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H238" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="239" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H239" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="240" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H240" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="241" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H241" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="242" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H242" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="243" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H243" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="244" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H244" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="245" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H245" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="246" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H246" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="247" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H247" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="248" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H248" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="249" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H249" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="250" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H250" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="251" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H251" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="252" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H252" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="253" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H253" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="254" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H254" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="255" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H255" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="256" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H256" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="257" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H257" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="258" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H258" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="259" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H259" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="260" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H260" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="261" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H261" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="262" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H262" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="263" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H263" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="264" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H264" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="265" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H265" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="266" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H266" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="267" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H267" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="268" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H268" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="269" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H269" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="270" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H270" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="271" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H271" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="272" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H272" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="273" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H273" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="274" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H274" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="275" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H275" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="276" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H276" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="277" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H277" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="278" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H278" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="279" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H279" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="280" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H280" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="281" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H281" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="282" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H282" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="283" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H283" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="284" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H284" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="285" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H285" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="286" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H286" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="287" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H287" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="288" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H288" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="289" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H289" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="290" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H290" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="291" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H291" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="292" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H292" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="293" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H293" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="294" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H294" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="295" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H295" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="296" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H296" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="297" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H297" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="298" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H298" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="299" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H299" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="300" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H300" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="301" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H301" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="302" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H302" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="303" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H303" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="304" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H304" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="305" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H305" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="306" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H306" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="307" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H307" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="308" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H308" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="309" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H309" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="310" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H310" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="311" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H311" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="312" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H312" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="313" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H313" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="314" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H314" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="315" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H315" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="316" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H316" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="317" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H317" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="318" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H318" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="319" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H319" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="320" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H320" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="321" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H321" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="322" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H322" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="323" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H323" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="324" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H324" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="325" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H325" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="326" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H326" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="327" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H327" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="328" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H328" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="329" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H329" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="330" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H330" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="331" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H331" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="332" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H332" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="333" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H333" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="334" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H334" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="335" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H335" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="336" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H336" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="337" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H337" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="338" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H338" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="339" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H339" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="340" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H340" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="341" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H341" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="342" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H342" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="343" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H343" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="344" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H344" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="345" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H345" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="346" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H346" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="347" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H347" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
